--- a/yii2-app-manage/web/uploads/nguoidung-template.xlsx
+++ b/yii2-app-manage/web/uploads/nguoidung-template.xlsx
@@ -15,21 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
-    <t>STT</t>
+    <t>stt</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>name</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Date</t>
+    <t>avatar</t>
   </si>
 </sst>
 </file>
@@ -394,22 +388,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:E1"/>
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="4.855957" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="6.28418" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="9.997559" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="7.426758" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="6.28418" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.712158" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,12 +410,6 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
